--- a/biology/Botanique/Syringa/Syringa.xlsx
+++ b/biology/Botanique/Syringa/Syringa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Syringa est un genre d'arbustes appartenant à la famille des Oleaceae et composé d'une vingtaine d'espèces. Ce genre regroupe plusieurs des lilas véritables.
 L'espèce la plus répandue est Syringa vulgaris, le lilas commun, parfois subspontané dans les haies et les bois.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Syringa
-Le nom scientifique Syringa a été donné par Linné. Il correspond au latin syringa (= roseau) et évoque la tige creuse des pousses de certains lilas. 
-Lilas
-Certaines espèces sont originaires d'Orient, sans doute de Perse, comme l'indique son nom : d'abord écrit lilac, c'est un emprunt à l'arabe lîlak (ليلك), lui-même issu du persan nîlak, qui signifie bleuté (dérivé de l'adjectif sanskrit nila = bleu).
+          <t>Syringa</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique Syringa a été donné par Linné. Il correspond au latin syringa (= roseau) et évoque la tige creuse des pousses de certains lilas. 
 </t>
         </is>
       </c>
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Utilisation</t>
+          <t>Étymologie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est cultivé pour ses fleurs odorantes dont la couleur varie selon les espèces et les variétés. Il existe plus de 2 000 cultivars de lilas.
+          <t>Lilas</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines espèces sont originaires d'Orient, sans doute de Perse, comme l'indique son nom : d'abord écrit lilac, c'est un emprunt à l'arabe lîlak (ليلك), lui-même issu du persan nîlak, qui signifie bleuté (dérivé de l'adjectif sanskrit nila = bleu).
 </t>
         </is>
       </c>
@@ -574,13 +595,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est cultivé pour ses fleurs odorantes dont la couleur varie selon les espèces et les variétés. Il existe plus de 2 000 cultivars de lilas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Syringa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syringa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Classification et systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Principales espèces
-Syringa afghanica
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Syringa afghanica
 Syringa emodi - Himalayan Lilac
 Syringa josikaea - Lilas de Hongrie
 Syringa komarowii (syn. S. reflexa)
@@ -605,9 +664,43 @@
 Syringa wolfii
 Syringa yunnanensis - Yunnan Lilac
 Syringa ×persica - Lilas de Perse
-Syringa ×chinensis - Lilas de Rouen
-Liste des espèces
-Selon World Checklist of Selected Plant Families (WCSP)  (6 août 2011)[1] :
+Syringa ×chinensis - Lilas de Rouen</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Syringa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syringa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification et systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (6 août 2011) :
 Syringa emodi Wall. ex Royle (1835)
 Syringa josikaea J.Jacq. ex Rchb.f. (1830)
 Syringa komarowii C.K.Schneid. (1910)
@@ -633,7 +726,7 @@
 sous-espèce Syringa villosa subsp. villosa
 sous-espèce Syringa villosa subsp. wolfii (C.K.Schneid.) Jin Y.Chen &amp; D.Y.Hong (2007)
 Syringa vulgaris L. (1753)
-Selon NCBI  (6 août 2011)[2] :
+Selon NCBI  (6 août 2011) :
 Syringa amurensis
 Syringa chinensis
 Syringa emodi
